--- a/Comparatif composants.xlsx
+++ b/Comparatif composants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univorleansfr-my.sharepoint.com/personal/o22106027_campus_univ-orleans_fr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{DDA32A8E-EACE-44DE-99A3-E95ACC88E89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FADDD477-8542-46B9-88FD-E28ECD67B115}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{DDA32A8E-EACE-44DE-99A3-E95ACC88E89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D88ABEF-121B-4D62-A1D6-7B4BF833A08F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9F1EE4D5-01DD-4943-9D90-36B1E6F150C3}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{9F1EE4D5-01DD-4943-9D90-36B1E6F150C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>SFP-FE-LX-SM1310-BIDI-C</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>PHY Nécessaire pour les SFP</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>DP83869HMRGZT</t>
   </si>
 </sst>
 </file>
@@ -526,100 +532,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,9 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2363DD17-1CFE-4CAC-8A64-9449873DE664}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,378 +996,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <v>27</v>
       </c>
-      <c r="K2" s="9">
-        <f t="shared" ref="K2:K5" si="0">J2*0.84</f>
+      <c r="K2" s="7">
+        <f t="shared" ref="K2:K3" si="0">J2*0.84</f>
         <v>22.68</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="8">
         <f>K2*L2</f>
         <v>22.68</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <v>27</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <f t="shared" si="0"/>
         <v>22.68</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="10">
         <v>1</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="11">
         <f>K3*L3</f>
         <v>22.68</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="14">
         <f>K4/0.84</f>
         <v>2.9285714285714288</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="14">
         <v>2.46</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="14">
         <v>3</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="15">
         <f t="shared" ref="M4:M9" si="1">K4*L4</f>
         <v>7.38</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="32" t="s">
+      <c r="H5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="17">
         <f>K5/0.84</f>
         <v>3.9642857142857144</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="17">
         <v>3.33</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="17">
         <v>3</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="18">
         <f t="shared" si="1"/>
         <v>9.99</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>16.53</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f>J6*0.84</f>
         <v>13.885200000000001</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>2</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="8">
         <f t="shared" si="1"/>
         <v>27.770400000000002</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <v>17.97</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="10">
         <f>J7*0.84</f>
         <v>15.094799999999999</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="10">
         <v>2</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="11">
         <f t="shared" si="1"/>
         <v>30.189599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="28" t="s">
+      <c r="H8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="14">
         <v>28</v>
       </c>
-      <c r="K8" s="28">
-        <f t="shared" ref="K8:K11" si="2">J8*0.84</f>
+      <c r="K8" s="14">
+        <f t="shared" ref="K8:K9" si="2">J8*0.84</f>
         <v>23.52</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="14">
         <v>3</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="15">
         <f t="shared" si="1"/>
         <v>70.56</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="32" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="32" t="s">
+      <c r="H9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="17">
         <v>27.23</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="17">
         <f t="shared" si="2"/>
         <v>22.873200000000001</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="17">
         <v>3</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="18">
         <f t="shared" si="1"/>
         <v>68.619600000000005</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="20" t="s">
@@ -1386,38 +1392,38 @@
       <c r="L10" s="20">
         <v>2</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="24">
         <f>L10*K10</f>
         <v>36.808799999999998</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="24"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1426,101 +1432,165 @@
       <c r="E12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="21" t="s">
+      <c r="H12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="22">
         <v>23.47</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="22">
         <f>J12*0.84</f>
         <v>19.714799999999997</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="22">
         <v>2</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="26">
         <f>L12*K12</f>
         <v>39.429599999999994</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="13" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="26"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:15" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>18.829999999999998</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <f>0.84*J15</f>
         <v>15.817199999999998</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <f>L15*K15</f>
         <v>15.817199999999998</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="19" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4">
+        <v>16.71</v>
+      </c>
+      <c r="K16" s="4">
+        <f>0.84*J16</f>
+        <v>14.0364</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <f>L16*K16</f>
+        <v>14.0364</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="L10:L11"/>
@@ -1535,27 +1605,6 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
